--- a/Report/Эксперимент.xlsx
+++ b/Report/Эксперимент.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danil\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danil\Downloads\Stab_Project\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D0C10B-545B-4E24-8055-0172FD7B32F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0313CF3A-BAD9-4A11-8ACC-B59CEDB842F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1080" yWindow="348" windowWidth="17280" windowHeight="8964" xr2:uid="{C07B6654-8913-4DDF-B7A7-FF3E5B264ECA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C07B6654-8913-4DDF-B7A7-FF3E5B264ECA}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Мощность(мВт)</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>Стабилизация тока лазерного диода, ILD=40мА</t>
+  </si>
+  <si>
+    <t>ВАХ</t>
+  </si>
+  <si>
+    <t>Сопротивление</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>I=100мА</t>
   </si>
 </sst>
 </file>
@@ -3045,6 +3057,1060 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10411231285056621"/>
+          <c:y val="4.7924686543776324E-2"/>
+          <c:w val="0.83326296449790005"/>
+          <c:h val="0.81968855557541931"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I=100мА</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$82:$C$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.1666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.5454545454545459</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$82:$B$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.5454545454545456E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-55A3-466A-87BD-D8768EA797A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$E$82:$E$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5714285714285712</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8888888888888888</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.1666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.5454545454545459</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$82:$D$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.5454545454545456E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-55A3-466A-87BD-D8768EA797A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$G$82:$G$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0588235294117649</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2222222222222223</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3684210526315788</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5714285714285712</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8888888888888888</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.1666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.5454545454545459</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$F$82:$F$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.29411764705882354</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26315789473684209</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.5454545454545456E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-55A3-466A-87BD-D8768EA797A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$H$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$I$82:$I$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0588235294117649</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2222222222222223</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3684210526315788</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5714285714285712</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8888888888888888</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.1666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.5454545454545459</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$H$82:$H$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38461538461538464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.29411764705882354</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26315789473684209</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.5454545454545456E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-55A3-466A-87BD-D8768EA797A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="419901672"/>
+        <c:axId val="419898720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="419901672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Напряжение</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> на нагрузке, В</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419898720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="419898720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Выходной ток, А</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419901672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3245,6 +4311,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5310,6 +6416,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5979,16 +7601,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>544285</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>97972</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>97971</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>195943</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>130629</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>359229</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6010,6 +7632,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1273628</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1502229</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>65315</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57406BB1-DCF2-A07A-154C-89BF901967C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6315,10 +7973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86470A24-B746-47D1-81D7-90E1F000E738}">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K98" sqref="K98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6327,7 +7985,7 @@
     <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="3" max="3" width="21.77734375" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="30.77734375" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7202,6 +8860,848 @@
       </c>
       <c r="D75">
         <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81">
+        <v>0.1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81">
+        <v>0.2</v>
+      </c>
+      <c r="F81">
+        <v>0.3</v>
+      </c>
+      <c r="H81">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>0.3</v>
+      </c>
+      <c r="B82">
+        <f>IF(((10+A82)*B$81&lt;5),B$81,5/(10+A82))</f>
+        <v>0.1</v>
+      </c>
+      <c r="C82">
+        <f>A82*B82</f>
+        <v>0.03</v>
+      </c>
+      <c r="D82">
+        <f>IF(((10+A82)*D$81&lt;5),D$81,5/(10+A82))</f>
+        <v>0.2</v>
+      </c>
+      <c r="E82">
+        <f>D82*A82</f>
+        <v>0.06</v>
+      </c>
+      <c r="F82">
+        <f>IF(((10+A82)*F$81&lt;5),F$81,5/(10+A82))</f>
+        <v>0.3</v>
+      </c>
+      <c r="G82">
+        <f>F82*A82</f>
+        <v>0.09</v>
+      </c>
+      <c r="H82">
+        <f>IF(((10+A82)*H$81&lt;5),H$81,5/(10+A82))</f>
+        <v>0.4</v>
+      </c>
+      <c r="I82">
+        <f>H82*A82</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ref="B83:B132" si="4">IF(((10+A83)*B$81&lt;5),B$81,5/(10+A83))</f>
+        <v>0.1</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ref="C83:C103" si="5">A83*B83</f>
+        <v>0.2</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ref="D83:D103" si="6">IF(((10+A83)*D$81&lt;5),D$81,5/(10+A83))</f>
+        <v>0.2</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ref="E83:E103" si="7">D83*A83</f>
+        <v>0.4</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ref="F83:F103" si="8">IF(((10+A83)*F$81&lt;5),F$81,5/(10+A83))</f>
+        <v>0.3</v>
+      </c>
+      <c r="G83">
+        <f t="shared" ref="G83:G103" si="9">F83*A83</f>
+        <v>0.6</v>
+      </c>
+      <c r="H83">
+        <f t="shared" ref="H83:H103" si="10">IF(((10+A83)*H$81&lt;5),H$81,5/(10+A83))</f>
+        <v>0.4</v>
+      </c>
+      <c r="I83">
+        <f t="shared" ref="I83:I103" si="11">H83*A83</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="5"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="7"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="8"/>
+        <v>0.3</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="9"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="10"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="11"/>
+        <v>1.153846153846154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>4</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="8"/>
+        <v>0.3</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="9"/>
+        <v>1.2</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="10"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="11"/>
+        <v>1.4285714285714286</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>5</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="8"/>
+        <v>0.3</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="10"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="11"/>
+        <v>1.6666666666666665</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>6</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="5"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="7"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="8"/>
+        <v>0.3</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="9"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="10"/>
+        <v>0.3125</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="11"/>
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>7</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="5"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="7"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="8"/>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="9"/>
+        <v>2.0588235294117649</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="10"/>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="11"/>
+        <v>2.0588235294117649</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>8</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="7"/>
+        <v>1.6</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="8"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="9"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="10"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="11"/>
+        <v>2.2222222222222223</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>9</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="7"/>
+        <v>1.8</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="8"/>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="9"/>
+        <v>2.3684210526315788</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="10"/>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="11"/>
+        <v>2.3684210526315788</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>10</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="10"/>
+        <v>0.25</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="11"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>15</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="8"/>
+        <v>0.2</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="10"/>
+        <v>0.2</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>20</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="6"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="7"/>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="9"/>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="10"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="11"/>
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>25</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="6"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="7"/>
+        <v>3.5714285714285712</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="8"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="9"/>
+        <v>3.5714285714285712</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="10"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="11"/>
+        <v>3.5714285714285712</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>30</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="6"/>
+        <v>0.125</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="7"/>
+        <v>3.75</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="8"/>
+        <v>0.125</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="9"/>
+        <v>3.75</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="10"/>
+        <v>0.125</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="11"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>35</v>
+      </c>
+      <c r="B96">
+        <f>IF(((10+A96)*B$81&lt;5),B$81,5/(10+A96))</f>
+        <v>0.1</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="6"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="7"/>
+        <v>3.8888888888888888</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="8"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="9"/>
+        <v>3.8888888888888888</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="10"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="11"/>
+        <v>3.8888888888888888</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>40</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="6"/>
+        <v>0.1</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>50</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="4"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="5"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="7"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="8"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="9"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="10"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="11"/>
+        <v>4.1666666666666661</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>60</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="4"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="5"/>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="6"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="7"/>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="8"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="9"/>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="10"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="11"/>
+        <v>4.2857142857142856</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>70</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="5"/>
+        <v>4.375</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="6"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="7"/>
+        <v>4.375</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="8"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="9"/>
+        <v>4.375</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="10"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="11"/>
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>80</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="4"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="5"/>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="6"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="7"/>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="8"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="9"/>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="10"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="11"/>
+        <v>4.4444444444444446</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>90</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="5"/>
+        <v>4.5</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="6"/>
+        <v>0.05</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="7"/>
+        <v>4.5</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="9"/>
+        <v>4.5</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="10"/>
+        <v>0.05</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="11"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>100</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="4"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="5"/>
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="6"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="7"/>
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="8"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="9"/>
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="10"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="11"/>
+        <v>4.5454545454545459</v>
       </c>
     </row>
   </sheetData>

--- a/Report/Эксперимент.xlsx
+++ b/Report/Эксперимент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danil\Downloads\Stab_Project\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0313CF3A-BAD9-4A11-8ACC-B59CEDB842F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58B96DB-47FA-4571-92DD-9A7C643D9DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C07B6654-8913-4DDF-B7A7-FF3E5B264ECA}"/>
   </bookViews>
@@ -77,16 +77,10 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Режим стабилизации тока обратной связи, Ipd=70мкА</t>
-  </si>
-  <si>
     <t>Режим стабилизации тока обратной связи, Ipd=150мкА</t>
   </si>
   <si>
     <t>Стабилизация тока лазерного диода, ILD=20мА</t>
-  </si>
-  <si>
-    <t>Стабилизация тока лазерного диода, ILD=40мА</t>
   </si>
   <si>
     <t>ВАХ</t>
@@ -99,6 +93,12 @@
   </si>
   <si>
     <t>I=100мА</t>
+  </si>
+  <si>
+    <t>Режим постоянного тока</t>
+  </si>
+  <si>
+    <t>Режим постоянной мощности</t>
   </si>
 </sst>
 </file>
@@ -1318,7 +1318,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Стабилизация тока лазерного диода, ILD=40мА</c:v>
+                  <c:v>Режим постоянного тока</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1826,7 +1826,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Режим стабилизации тока обратной связи, Ipd=70мкА</c:v>
+                  <c:v>Режим постоянной мощности</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1904,13 +1904,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.9</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.39</c:v>
+                  <c:v>1.42</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.56</c:v>
@@ -1931,7 +1931,7 @@
                   <c:v>1.954</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.79</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2.0499999999999998</c:v>
@@ -1955,7 +1955,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Стабилизация тока лазерного диода, ILD=40мА</c:v>
+                  <c:v>Режим постоянного тока</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2461,7 +2461,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Режим стабилизации тока обратной связи, Ipd=70мкА</c:v>
+                  <c:v>Режим постоянной мощности</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2539,13 +2539,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.9</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.39</c:v>
+                  <c:v>1.42</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.56</c:v>
@@ -2566,7 +2566,7 @@
                   <c:v>1.954</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.79</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2.0499999999999998</c:v>
@@ -7975,8 +7975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86470A24-B746-47D1-81D7-90E1F000E738}">
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K98" sqref="K98"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8254,10 +8254,10 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -8471,7 +8471,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D50" t="s">
         <v>10</v>
@@ -8486,7 +8486,7 @@
         <v>41.724686838634909</v>
       </c>
       <c r="C51">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D51">
         <v>44.2</v>
@@ -8519,7 +8519,7 @@
         <v>33.377832327900194</v>
       </c>
       <c r="C53">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="D53">
         <v>39.700000000000003</v>
@@ -8659,7 +8659,7 @@
         <v>17.506128242065984</v>
       </c>
       <c r="C60">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="D60">
         <v>33.5</v>
@@ -8688,7 +8688,7 @@
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
         <v>10</v>
@@ -8864,21 +8864,21 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B81">
         <v>0.1</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D81">
         <v>0.2</v>
@@ -8932,7 +8932,7 @@
         <v>2</v>
       </c>
       <c r="B83">
-        <f t="shared" ref="B83:B132" si="4">IF(((10+A83)*B$81&lt;5),B$81,5/(10+A83))</f>
+        <f t="shared" ref="B83:B103" si="4">IF(((10+A83)*B$81&lt;5),B$81,5/(10+A83))</f>
         <v>0.1</v>
       </c>
       <c r="C83">

--- a/Report/Эксперимент.xlsx
+++ b/Report/Эксперимент.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danil\Downloads\Stab_Project\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58B96DB-47FA-4571-92DD-9A7C643D9DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6BD6B5-5EAC-4154-9007-07C72F6F39AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C07B6654-8913-4DDF-B7A7-FF3E5B264ECA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Мощность(мВт)</t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>Режим постоянной мощности</t>
+  </si>
+  <si>
+    <t>Ток лазера</t>
+  </si>
+  <si>
+    <t>Мощность</t>
+  </si>
+  <si>
+    <t>Ток фотодиода</t>
+  </si>
+  <si>
+    <t>Температура</t>
   </si>
 </sst>
 </file>
@@ -7973,10 +7985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86470A24-B746-47D1-81D7-90E1F000E738}">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A172" sqref="A172:E179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9704,6 +9716,443 @@
         <v>4.5454545454545459</v>
       </c>
     </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>5000</v>
+      </c>
+      <c r="B143">
+        <f>1/((LN(A143)-LN($C$34))/3887+1/$C$35)-273</f>
+        <v>41.724686838634909</v>
+      </c>
+      <c r="C143">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D143">
+        <v>44.2</v>
+      </c>
+      <c r="E143" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>6000</v>
+      </c>
+      <c r="B144">
+        <f t="shared" ref="B144:B153" si="12">1/((LN(A144)-LN($C$34))/3887+1/$C$35)-273</f>
+        <v>37.146212629933927</v>
+      </c>
+      <c r="C144">
+        <v>1.25</v>
+      </c>
+      <c r="D144">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>7000</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="12"/>
+        <v>33.377832327900194</v>
+      </c>
+      <c r="C145">
+        <v>1.42</v>
+      </c>
+      <c r="D145">
+        <v>39.700000000000003</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>8000</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="12"/>
+        <v>30.186761738168684</v>
+      </c>
+      <c r="C146">
+        <v>1.56</v>
+      </c>
+      <c r="D146">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>9000</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="12"/>
+        <v>27.426711537692029</v>
+      </c>
+      <c r="C147">
+        <v>1.65</v>
+      </c>
+      <c r="D147">
+        <v>37.1</v>
+      </c>
+      <c r="E147">
+        <v>-6.42</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>10000</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="C148">
+        <v>1.72</v>
+      </c>
+      <c r="D148">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="E148">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>11000</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="12"/>
+        <v>22.838300059592939</v>
+      </c>
+      <c r="C149">
+        <v>1.8</v>
+      </c>
+      <c r="D149">
+        <v>35.44</v>
+      </c>
+      <c r="E149">
+        <v>-6.42</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>12000</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="12"/>
+        <v>20.89202730121616</v>
+      </c>
+      <c r="C150">
+        <v>1.87</v>
+      </c>
+      <c r="D150">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="E150">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>13000</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="12"/>
+        <v>19.124108009801546</v>
+      </c>
+      <c r="C151">
+        <v>1.954</v>
+      </c>
+      <c r="D151">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>14000</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="12"/>
+        <v>17.506128242065984</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+      <c r="D152">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>15000</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="12"/>
+        <v>16.015852464218028</v>
+      </c>
+      <c r="C153">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D153">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>22</v>
+      </c>
+      <c r="B155" t="s">
+        <v>23</v>
+      </c>
+      <c r="C155" t="s">
+        <v>24</v>
+      </c>
+      <c r="D155" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>70</v>
+      </c>
+      <c r="B156">
+        <v>3.63</v>
+      </c>
+      <c r="C156">
+        <v>143</v>
+      </c>
+      <c r="D156">
+        <v>40</v>
+      </c>
+      <c r="E156">
+        <v>1.232</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>60</v>
+      </c>
+      <c r="B157">
+        <v>2.58</v>
+      </c>
+      <c r="C157">
+        <v>117</v>
+      </c>
+      <c r="D157">
+        <v>40</v>
+      </c>
+      <c r="E157">
+        <v>1.177</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>50</v>
+      </c>
+      <c r="B158">
+        <v>1.17</v>
+      </c>
+      <c r="C158">
+        <v>90</v>
+      </c>
+      <c r="D158">
+        <v>40</v>
+      </c>
+      <c r="E158">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>40</v>
+      </c>
+      <c r="B159">
+        <v>0.9</v>
+      </c>
+      <c r="C159">
+        <v>60</v>
+      </c>
+      <c r="D159">
+        <v>40</v>
+      </c>
+      <c r="E159">
+        <v>1.0629999999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>30</v>
+      </c>
+      <c r="B160">
+        <v>-4.5199999999999996</v>
+      </c>
+      <c r="C160">
+        <v>30</v>
+      </c>
+      <c r="D160">
+        <v>40</v>
+      </c>
+      <c r="E160">
+        <v>1.0049999999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>20</v>
+      </c>
+      <c r="B161">
+        <v>-23</v>
+      </c>
+      <c r="C161">
+        <v>4</v>
+      </c>
+      <c r="D161">
+        <v>40</v>
+      </c>
+      <c r="E161">
+        <v>0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>22</v>
+      </c>
+      <c r="B163" t="s">
+        <v>23</v>
+      </c>
+      <c r="C163" t="s">
+        <v>24</v>
+      </c>
+      <c r="D163" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>70</v>
+      </c>
+      <c r="B164">
+        <v>7.8</v>
+      </c>
+      <c r="C164">
+        <v>190</v>
+      </c>
+      <c r="D164">
+        <v>15</v>
+      </c>
+      <c r="E164">
+        <v>1.258</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>60</v>
+      </c>
+      <c r="B165">
+        <v>7.08</v>
+      </c>
+      <c r="C165">
+        <v>158</v>
+      </c>
+      <c r="D165">
+        <v>15</v>
+      </c>
+      <c r="E165">
+        <v>1.196</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>50</v>
+      </c>
+      <c r="B166">
+        <v>6.11</v>
+      </c>
+      <c r="C166">
+        <v>130</v>
+      </c>
+      <c r="D166">
+        <v>15</v>
+      </c>
+      <c r="E166">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>40</v>
+      </c>
+      <c r="B167">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="C167">
+        <v>97</v>
+      </c>
+      <c r="D167">
+        <v>15</v>
+      </c>
+      <c r="E167">
+        <v>1.0860000000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>30</v>
+      </c>
+      <c r="B168">
+        <v>2.66</v>
+      </c>
+      <c r="C168">
+        <v>63</v>
+      </c>
+      <c r="D168">
+        <v>15</v>
+      </c>
+      <c r="E168">
+        <v>1.0229999999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>20</v>
+      </c>
+      <c r="B169">
+        <v>-1</v>
+      </c>
+      <c r="C169">
+        <v>30</v>
+      </c>
+      <c r="D169">
+        <v>15</v>
+      </c>
+      <c r="E169">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>15</v>
+      </c>
+      <c r="B170">
+        <v>-5.6</v>
+      </c>
+      <c r="C170">
+        <v>11</v>
+      </c>
+      <c r="D170">
+        <v>15</v>
+      </c>
+      <c r="E170">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
